--- a/biology/Histoire de la zoologie et de la botanique/Sidney_Irving_Smith/Sidney_Irving_Smith.xlsx
+++ b/biology/Histoire de la zoologie et de la botanique/Sidney_Irving_Smith/Sidney_Irving_Smith.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Sidney Irving Smith est un zoologiste américain, né le 18 février 1843 à Norway et mort le 17 mai 1926.
 Il est le fils d’Elliot Smith et de Lavinia H. née Barton. Il obtient son Bachelor of Pedagogy à l’école scientifique de Sheffield à Yale en 1867 puis son Master of Arts en 1887 toujours à Yale. Il se marie avec Eugenia P. Barber le 29 juin 1882. Il fait toute sa carrière à Yale : d’abord comme assistant en zoologie (1867-1875), puis comme le premier professeur d’anatomie comparée (1875-1906) enfin comme professeur émérite.
@@ -514,7 +526,9 @@
           <t>Liste partielle des publications</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t>1884 : List of the Crustacea Dredged on the Coast of Labrador by the Expedition Under the Direction of Winfrid Alden Stearns, in 1882. Washington, D.C.: Smithsonian Institution Press.</t>
         </is>
@@ -544,7 +558,9 @@
           <t>Source</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Gilberto Rodriguez (1993). From Oviedo to Rathbun : The development of brachyuran crab taxonomy in the Neotropics (1535-1937). in History of Carcinology, F. Truesdale éditeur. Balkema (Rotterdam), Crustacean Issues, 8 : 41-73.</t>
         </is>
